--- a/Izumi.xlsx
+++ b/Izumi.xlsx
@@ -24,29 +24,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
-  <si>
-    <t>Res</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="56">
   <si>
     <t>User_Table</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Res_Table</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Thread_Table</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UserName</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UserPass</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -107,39 +91,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Thread_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Thread_Name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Res_count</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LastUpdate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R_Thread_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Res_Number</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Res_UserName</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Number</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ResTime</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -158,7 +110,80 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CreateDate</t>
+    <t>Res_Table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>updateが頻繁に起こる列</t>
+    <rPh sb="7" eb="9">
+      <t>ヒンパン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_pass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>res_user_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>res_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thread_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>res_content</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thread_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>res_count_all</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>res_count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Category_Table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>category_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>category_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Number</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -166,7 +191,133 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>T_UserName</t>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>category_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>last_update</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最低５文字</t>
+    <rPh sb="0" eb="2">
+      <t>サイテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レスにつく名前</t>
+    <rPh sb="5" eb="7">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿した時間</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲示板内のカウンター</t>
+    <rPh sb="0" eb="3">
+      <t>ケイジバン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッド内のカウンター</t>
+    <rPh sb="4" eb="5">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッド名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッドテーブルを参照</t>
+    <rPh sb="9" eb="11">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書き込み内容</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリーid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッドを作った日</t>
+    <rPh sb="5" eb="6">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリーテーブルを参照</t>
+    <rPh sb="10" eb="12">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリーid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリーの名前</t>
+    <rPh sb="6" eb="8">
+      <t>ナマエ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -174,7 +325,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,16 +341,44 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -207,15 +386,270 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,284 +931,513 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.296875" customWidth="1"/>
+    <col min="1" max="1" width="16.69921875" style="1" customWidth="1"/>
+    <col min="2" max="8" width="8.796875" style="1"/>
+    <col min="9" max="9" width="14.59765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="9">
+        <v>20</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="9">
+        <v>20</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="12">
+        <v>25</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="12">
+        <v>4</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="12">
+        <v>4</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="23">
+        <v>200</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="9">
+        <v>4</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="23">
+        <v>200</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="12">
+        <v>25</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A20" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="12">
+        <v>25</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="19">
+        <v>4</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="J24" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A25" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="3">
+        <v>40</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23">
-        <v>20</v>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Izumi.xlsx
+++ b/Izumi.xlsx
@@ -26,14 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="56">
   <si>
-    <t>User_Table</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Thread_Table</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>列名</t>
     <rPh sb="0" eb="2">
       <t>レツメイ</t>
@@ -110,10 +102,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Res_Table</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>updateが頻繁に起こる列</t>
     <rPh sb="7" eb="9">
       <t>ヒンパン</t>
@@ -171,10 +159,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Category_Table</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>category_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -318,6 +302,22 @@
     <rPh sb="6" eb="8">
       <t>ナマエ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>res_table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thread_table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>category_table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_table</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -933,9 +933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -948,226 +946,226 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="J2" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="9">
         <v>20</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3">
         <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="F7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="9">
         <v>20</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="12">
         <v>25</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" s="12">
         <v>4</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
       <c r="J10" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" s="12">
         <v>4</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" s="23">
         <v>200</v>
@@ -1179,21 +1177,21 @@
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3">
         <v>1000</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1201,12 +1199,12 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="14" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -1219,88 +1217,88 @@
     </row>
     <row r="16" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="F16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="9">
         <v>4</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C18" s="23">
         <v>200</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
       <c r="J18" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C19" s="12">
         <v>25</v>
@@ -1311,18 +1309,18 @@
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C20" s="12">
         <v>25</v>
@@ -1333,21 +1331,21 @@
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C21" s="19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
@@ -1356,88 +1354,90 @@
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="F24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="I24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="21"/>
+        <v>31</v>
+      </c>
+      <c r="C25" s="21">
+        <v>2</v>
+      </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C26" s="3">
         <v>40</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
